--- a/data/long_razon/P24_4-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_4-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>168,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-43,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-28,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 703,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-78,23; 36,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,35; 247,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 58,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,71; 67,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 51,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 115,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,21; 18,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 83,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>132,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-61,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-48,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,95; 398,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 613,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,02; -6,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 299,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 130,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 187,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 191,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,06; -15,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>53,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 237,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 209,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 225,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 69,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 69,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 164,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 93,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 77,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 133,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>897,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>108,77; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 109,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,85; 44,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 84,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 206,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 58,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 147,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 134,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 36,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>220,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 150,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 358,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,24; 105,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70,72; 560,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 109,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 104,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 241,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 123,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 75,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>103,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>103,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 422,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 696,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 204,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 109,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 121,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 144,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 107,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 189,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 107,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,57; 177,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 94,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 44,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 61,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 53,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 35,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,97; 75,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 56,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 30,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_4-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_4-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.9989404999747877</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1403768212551792</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1382312481235987</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4078096625759917</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3581891030547256</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.11113693965248</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1905586666530867</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1503007105041128</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>1.436028718091318</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>1.170957112683752</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.2371167976016069</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.1653019002135193</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.02781733306561287</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.8060245786749675</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.7325343709928915</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.3953717631432874</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6716884794940576</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5152113874092681</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.383721812243411</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.6803281832332727</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.527943672539682</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.6071854021671754</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.5436722616317106</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.2303623535862369</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.06048858450100336</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3165002956862607</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.5402038387104121</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4262812438167807</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.01243209601657474</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.1400822597693115</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>5.347533690079603</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.579893300923732</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.2451437743115</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.366887664191021</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.712369622998802</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5708826157782048</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.6623113273170891</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4844393083877451</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>4.35180823081745</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>3.946243202652486</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.023835459049868</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5519337217929577</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.5627680822529946</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>2.046771111174502</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>2.267157751663482</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1865739228778301</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.390010921934082</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.6244974498559833</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.491187310085905</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2791111165965695</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.5005614008360573</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.1619179221441506</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.3655738905118127</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.8607406320451759</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>1.175814791175133</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.3737623193796468</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.6047316417302515</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.4815909871703656</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>1.054978824064755</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0.4255711644810837</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7336678593291167</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.03810689919385175</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.8612895531197883</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1307534930080535</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3923243875076832</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.395642695828666</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.6309369215936151</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.04593441037321103</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.2110185531321468</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2864067523722703</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.07384210092611392</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.707228332599798</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.213500421695659</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.2269072412248258</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>3.930792594355534</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.001629422907669</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.1055782944219322</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.898286058987357</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.113682392215293</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.921458292862832</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.220968801056742</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.04272685136289069</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>2.224467667262028</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>3.201884396494369</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.553953660778253</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.78723030422748</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>-0.1837769061162247</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>2.44798121421505</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1.758576469269574</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.5546364049229051</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3922890153279794</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1558406157907651</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6951554374259729</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.09318449856239987</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.009259078527135074</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.06277935513965113</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.7429798648770504</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.1734323634518561</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4334860339797413</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.2105809931195403</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.1703699610931511</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.513161285372127</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.3450061237744921</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.3107421735467073</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.2566349233668376</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3219558388548774</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4855457158235867</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1492763591852872</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.5870622257609732</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4165538731227136</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.31618398559752</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.109301173807236</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.258052033588182</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.06823409852867557</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2304833482298254</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2085879334483994</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0.06840450485490965</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.05138065528282469</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.1619410497853291</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>2.162673225405961</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.917165962229852</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.007664582762857</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.267540608218128</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.373360655704729</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.7191012601966595</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.738304940409792</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.566048328519085</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.7344740507063386</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.481086406050993</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.8211064767853113</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.7682892508564387</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>1.321426404363403</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.9875823731873303</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1.033984370701814</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>9.152269043149639</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.05580704054214086</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.232213297823918</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.85908510640508</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1435711468059216</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1575841241920192</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.8784215732741303</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1040903915028999</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.5749940521125205</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.5497047833588955</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.6375199120281582</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.517320908875913</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.01362063208100778</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>1.318793029798373</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.360016106439229</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.8610865456998544</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.6465448581764677</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.576960957836488</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.195715396785855</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4176862858414447</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.29042120144331</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.1316316336421574</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2274317844301094</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.01421305020337351</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.03930929979610144</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.04573345820121982</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.0977818301378528</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.2885524310743151</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.6203028672213805</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.06629091353096063</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -949,20 +1279,48 @@
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="n">
+        <v>1.241187568983019</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3696489685403881</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.3015004980066</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.382782029807367</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.816061717527089</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.054178402570314</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.6085812813154563</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.356239830310376</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>1.55265111418099</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.588998031718925</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.321311287587501</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.394383323689157</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>2.537597117107377</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>1.08895967022756</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1333,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.1122815220828589</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.761682074894947</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.07914478791066071</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.3449452833428</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.117123883545139</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>2.208055224729547</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.1633866539654119</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.342792759862348</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.2049065736207455</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.1227671784030273</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.9029320231627243</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.3863535031253604</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.2305221670765555</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.08385446545875588</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.1202720375201066</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1386,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.7190836854945519</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.1851914844408578</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5141831027486397</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.6775768438605154</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4021919476177663</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.5913399590121816</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.3581576930678123</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1450020243146325</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.2917202206081345</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.3035723564274727</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.01464677599864125</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.1499087688406179</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.1621945831254714</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.424578954312837</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.2452789830642165</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1439,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.397759344614065</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4.056513774809699</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.9373960171636152</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.2997891705491884</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.0616397848342</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>5.584377224133664</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.180936819502836</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.1695710302721</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>1.07159344784235</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.8521586189339885</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>2.392002322363447</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.436199070699686</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.7661188781634969</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.4192249880769039</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.6636350489218868</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1496,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.9135443472122832</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.103365204782476</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.4563391505774462</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2.404961474645266</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>2.873535827520676</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.07048349129489746</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.1744810790862465</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.3440413738708377</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>1.392171244994244</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.1289961464745535</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.2356010552810365</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.4481943410407076</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.3893482672897386</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>1.694262735847894</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0.5500766675762848</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1549,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.1913843620554203</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.2726649695090412</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.2513878932814581</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3293655095894715</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.005687898608962796</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.4367658268550116</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.3891650552637883</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.229385978792291</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0.2658038650050631</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.5923458165714505</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.2557212082772667</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.1664876453070726</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.06359815046534317</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>0.5684343577530843</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.3313377914485255</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1602,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>3.874057322578826</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>8.436205657014781</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2.243193069228528</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>9.479417649822818</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>12.53452323064882</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.9039128388680524</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.015510482001351</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.344347957405595</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>3.456578395246111</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>1.406629144913318</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>1.102322382248788</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.874156648942095</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>1.273130936033098</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>3.509348892214112</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>1.845108136064405</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1659,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.7062078656066831</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4544513811666233</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.03268859409306284</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.8679246611083011</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2352520786324879</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.2454148924596287</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.1918348960507903</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.1561348796602619</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.6870036229915939</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.5033732858964496</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.3851157456523072</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.2928712686223596</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.07937937410645987</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.7582864463304047</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.3922731352349413</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1712,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.1023172977277365</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.02237682787037206</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2943861935299591</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3134956670894395</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.1271979562186757</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.01550548725588413</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.07073834616501758</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.04597310988424069</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.3536753743008761</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.1540934170906671</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.1327878229895011</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.05528077601552008</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.0868198763391122</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.4499614136297691</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.115217747548646</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1765,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>1.581245106941548</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.22485530354858</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.309082476903866</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.657857435138232</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8882167512175543</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.5605063713276084</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.4619161267816602</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.3943194039271937</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>1.072003237865077</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.933933168376861</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.7226455351858525</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.5955361049472735</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.2783920607250781</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>1.098941641798766</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.7337081519458206</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
